--- a/SOC_Photon/datasheets/BattleBorn.xlsx
+++ b/SOC_Photon/datasheets/BattleBorn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,11 +626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586479912"/>
-        <c:axId val="586480304"/>
+        <c:axId val="474033504"/>
+        <c:axId val="474036248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586479912"/>
+        <c:axId val="474033504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -757,12 +757,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586480304"/>
+        <c:crossAx val="474036248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586480304"/>
+        <c:axId val="474036248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -883,7 +883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586479912"/>
+        <c:crossAx val="474033504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -968,7 +968,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>50 deg C</a:t>
+              <a:t>30 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -976,14 +976,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30196566338298619"/>
-          <c:y val="1.9493177387914229E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1020,8 +1013,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
+          <c:x val="0.15789958073422641"/>
+          <c:y val="3.7349132528024638E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -1034,11 +1027,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$T$13</c:f>
+              <c:f>Model!$N$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 50C</c:v>
+                  <c:v>VoC 30C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1120,51 +1113,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$T$14:$T$27</c:f>
+              <c:f>Model!$N$14:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.35</c:v>
+                  <c:v>13.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.08</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.05</c:v>
+                  <c:v>12.944285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.046666666666667</c:v>
+                  <c:v>12.932857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.043333333333333</c:v>
+                  <c:v>12.921428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.04</c:v>
+                  <c:v>12.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.01</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.95</c:v>
+                  <c:v>12.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.87</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.66</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.43</c:v>
+                  <c:v>11.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.1</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>10.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,11 +1169,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$U$13</c:f>
+              <c:f>Model!$O$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC50fit</c:v>
+                  <c:v>VoC30fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1262,51 +1255,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$U$14:$U$27</c:f>
+              <c:f>Model!$O$14:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.624053515884519</c:v>
+                  <c:v>13.661752674608037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.371313929135514</c:v>
+                  <c:v>13.353751841677095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.257989878502613</c:v>
+                  <c:v>13.214412746343285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.154253690818782</c:v>
+                  <c:v>13.085128044822085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.048426735079993</c:v>
+                  <c:v>12.948318063358611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.997426724505619</c:v>
+                  <c:v>12.875904887578359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.971312912373676</c:v>
+                  <c:v>12.831606888470063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.955576936829443</c:v>
+                  <c:v>12.797884176747626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.938278089573135</c:v>
+                  <c:v>12.760312443751097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.904323459173444</c:v>
+                  <c:v>12.700635400087616</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.826050649375436</c:v>
+                  <c:v>12.585326090090515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.625056630335575</c:v>
+                  <c:v>12.31922199096425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.377172654874936</c:v>
+                  <c:v>12.006517216642484</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.981614391065904</c:v>
+                  <c:v>10.299613848224887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,11 +1314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="694146312"/>
-        <c:axId val="694141216"/>
+        <c:axId val="475906472"/>
+        <c:axId val="475913920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="694146312"/>
+        <c:axId val="475906472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1383,12 +1376,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694141216"/>
+        <c:crossAx val="475913920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="694141216"/>
+        <c:axId val="475913920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -1447,7 +1440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694146312"/>
+        <c:crossAx val="475906472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1462,16 +1455,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.4430014430014435E-2"/>
-          <c:y val="0.8903501097450538"/>
-          <c:w val="0.9"/>
-          <c:h val="0.1096498902549462"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1575,7 +1559,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>30 deg C</a:t>
+              <a:t>40 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -1620,8 +1604,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15789958073422641"/>
-          <c:y val="3.7349132528024638E-2"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -1634,11 +1618,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$N$13</c:f>
+              <c:f>Model!$Q$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 30C</c:v>
+                  <c:v>VoC 40C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1720,51 +1704,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$N$14:$N$27</c:f>
+              <c:f>Model!$Q$14:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.31</c:v>
+                  <c:v>13.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.006666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.003333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.944285714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.932857142857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.921428571428571</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12.91</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.84</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.7</c:v>
+                  <c:v>12.77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.4</c:v>
+                  <c:v>12.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.85</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.3</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.45</c:v>
+                  <c:v>10.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,11 +1760,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$O$13</c:f>
+              <c:f>Model!$R$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC30fit</c:v>
+                  <c:v>VoC40fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1862,51 +1846,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$O$14:$O$27</c:f>
+              <c:f>Model!$R$14:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.661752674608037</c:v>
+                  <c:v>13.704112851056955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.353751841677095</c:v>
+                  <c:v>13.396454479272043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.214412746343285</c:v>
+                  <c:v>13.259843363933317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.085128044822085</c:v>
+                  <c:v>13.135798657924287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.948318063358611</c:v>
+                  <c:v>13.010251731572101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.875904887578359</c:v>
+                  <c:v>12.949474177939177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.831606888470063</c:v>
+                  <c:v>12.916937509273122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.797884176747626</c:v>
+                  <c:v>12.894983815007649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.760312443751097</c:v>
+                  <c:v>12.869092096711494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.700635400087616</c:v>
+                  <c:v>12.820882910600099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.585326090090515</c:v>
+                  <c:v>12.716600986130778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.31922199096425</c:v>
+                  <c:v>12.460431331790987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.006517216642484</c:v>
+                  <c:v>12.151437632178304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.299613848224887</c:v>
+                  <c:v>10.438523136048317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,11 +1905,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="694144744"/>
-        <c:axId val="694141608"/>
+        <c:axId val="475912744"/>
+        <c:axId val="475914704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="694144744"/>
+        <c:axId val="475912744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1983,12 +1967,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694141608"/>
+        <c:crossAx val="475914704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="694141608"/>
+        <c:axId val="475914704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -2047,7 +2031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694144744"/>
+        <c:crossAx val="475912744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2163,14 +2147,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>40 deg C</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Coefficients vs OAT, C</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2211,25 +2190,25 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
-          <c:w val="0.75461703650680023"/>
-          <c:h val="0.67122210373054014"/>
+          <c:x val="7.8233814523184605E-2"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.90787729658792649"/>
+          <c:h val="0.6714577865266842"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$Q$13</c:f>
+              <c:f>Model!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 40C</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2237,7 +2216,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2248,130 +2227,88 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Model!$Q$14:$Q$27</c:f>
+              <c:f>Model!$B$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.32</c:v>
+                  <c:v>3.3483399767315909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1</c:v>
+                  <c:v>3.5247557002832086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.03</c:v>
+                  <c:v>3.5539644353434743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.01</c:v>
+                  <c:v>2.7782710208104895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.006666666666666</c:v>
+                  <c:v>2.8069059976624819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.003333333333334</c:v>
+                  <c:v>2.8512557761146389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.77</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.51</c:v>
+                  <c:v>2.7310417617626701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$R$13</c:f>
+              <c:f>Model!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC40fit</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2379,7 +2316,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2390,118 +2327,176 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Model!$R$14:$R$27</c:f>
+              <c:f>Model!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.704112851056955</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.396454479272043</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.259843363933317</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.135798657924287</c:v>
+                  <c:v>-0.57795540028306935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.010251731572101</c:v>
+                  <c:v>-0.55329798798696006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.949474177939177</c:v>
+                  <c:v>-0.55710475700016193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.916937509273122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.894983815007649</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.869092096711494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.820882910600099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.716600986130778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.460431331790987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.151437632178304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.438523136048317</c:v>
+                  <c:v>-0.45551626024511238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.7704346329793603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7704346329793603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7704346329793603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0994517959124805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1254678290104727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1592275633503999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0590283827915401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2512,14 +2507,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="694145528"/>
-        <c:axId val="694145920"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="694145528"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="475910000"/>
+        <c:axId val="475910784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="475910000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2574,16 +2570,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694145920"/>
+        <c:crossAx val="475910784"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="694145920"/>
+        <c:axId val="475910784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14"/>
-          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2638,10 +2635,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694145528"/>
+        <c:crossAx val="475910000"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2755,7 +2751,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Model Coefficients vs OAT, C</a:t>
+              <a:t>Model</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2797,25 +2793,25 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8233814523184605E-2"/>
-          <c:y val="0.15319444444444447"/>
-          <c:w val="0.90787729658792649"/>
-          <c:h val="0.6714577865266842"/>
+          <c:x val="8.7897071513321115E-2"/>
+          <c:y val="8.9321468298109025E-2"/>
+          <c:w val="0.87420338510768347"/>
+          <c:h val="0.68283832429733826"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$8</c:f>
+              <c:f>Model!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a</c:v>
+                  <c:v>VoC-10fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2823,99 +2819,129 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Model!$B$5:$H$5</c:f>
+              <c:f>Model!$A$14:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Model!$B$8:$H$8</c:f>
+              <c:f>Model!$C$14:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.3483399767315909</c:v>
+                  <c:v>13.247621375008922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5247557002832086</c:v>
+                  <c:v>12.625737933744901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5539644353434743</c:v>
+                  <c:v>12.358733953297351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7782710208104895</c:v>
+                  <c:v>12.124128154813484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8069059976624819</c:v>
+                  <c:v>11.898031230846634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8512557761146389</c:v>
+                  <c:v>11.79406963880048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7310417617626701</c:v>
+                  <c:v>11.737704849502094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.693106641659902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.630866222328329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.513641466843254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.272522352376143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.71123010457968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.056259937733962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5187419397108455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$7</c:f>
+              <c:f>Model!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>b</c:v>
+                  <c:v>VoC0fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2923,99 +2949,129 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Model!$B$5:$H$5</c:f>
+              <c:f>Model!$A$14:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Model!$B$7:$H$7</c:f>
+              <c:f>Model!$F$14:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.953284269215393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.33140082795137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.064396847503822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.57795540028306935</c:v>
+                  <c:v>12.829791049019956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.55329798798696006</c:v>
+                  <c:v>12.603694125053105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.55710475700016193</c:v>
+                  <c:v>12.499732533006949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.45551626024511238</c:v>
+                  <c:v>12.443367743708565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.398769535866373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.336529116534802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.219304361049723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.978185246582612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.41689299878615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.761922831940431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2244048339173172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$9</c:f>
+              <c:f>Model!$I$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>c</c:v>
+                  <c:v>VoC10fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3023,87 +3079,640 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Model!$B$5:$H$5</c:f>
+              <c:f>Model!$A$14:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Model!$B$9:$H$9</c:f>
+              <c:f>Model!$I$14:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-1.7704346329793603</c:v>
+                  <c:v>14.070119209456456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.7704346329793603</c:v>
+                  <c:v>13.448235768192433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7704346329793603</c:v>
+                  <c:v>13.181231787744885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0994517959124805</c:v>
+                  <c:v>12.946625989261019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1254678290104727</c:v>
+                  <c:v>12.720529065294167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1592275633503999</c:v>
+                  <c:v>12.616567473248011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0590283827915401</c:v>
+                  <c:v>12.560202683949628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.515604476107436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.453364056775865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.336139301290785</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.095020186823675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.533727939027212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.878757772181494</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3412397741583799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC20fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$14:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$L$14:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.651276899592036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.32591936036253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.174887714615567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.030606512523184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.868875635416604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.773954775560256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.707963337013783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.65259697660499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.592805101403084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.509533719658675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.367777022112602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.068146279937437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.73054179566167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9367442821549403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC30fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$14:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$O$14:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.661752674608037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.353751841677095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.214412746343285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.085128044822085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.948318063358611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.875904887578359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.831606888470063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.797884176747626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.760312443751097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.700635400087616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.585326090090515</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.31922199096425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.006517216642484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.299613848224887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC40fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$14:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$R$14:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.704112851056955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.396454479272043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.259843363933317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.135798657924287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.010251731572101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.949474177939177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.916937509273122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.894983815007649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.869092096711494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.820882910600099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.716600986130778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.460431331790987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.151437632178304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.438523136048317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC50fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$14:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$U$14:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.624053515884519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.371313929135514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.257989878502613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.154253690818782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.048426735079993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.997426724505619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.971312912373676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.955576936829443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.938278089573135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.904323459173444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.826050649375436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.625056630335575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.377172654874936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.981614391065904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -3114,15 +3723,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="694147096"/>
-        <c:axId val="694140040"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="694147096"/>
+        <c:axId val="475911568"/>
+        <c:axId val="475913136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475911568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3177,17 +3785,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694140040"/>
+        <c:crossAx val="475913136"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="694140040"/>
+        <c:axId val="475913136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="13.5"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3242,9 +3849,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694147096"/>
+        <c:crossAx val="475911568"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3358,1220 +3965,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Model</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.7897071513321115E-2"/>
-          <c:y val="8.9321468298109025E-2"/>
-          <c:w val="0.87420338510768347"/>
-          <c:h val="0.68283832429733826"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC-10fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$C$14:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.247621375008922</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.625737933744901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.358733953297351</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.124128154813484</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.898031230846634</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.79406963880048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.737704849502094</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.693106641659902</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.630866222328329</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.513641466843254</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.272522352376143</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.71123010457968</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.056259937733962</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5187419397108455</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$F$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC0fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$F$14:$F$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.953284269215393</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.33140082795137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.064396847503822</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.829791049019956</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.603694125053105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.499732533006949</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.443367743708565</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.398769535866373</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.336529116534802</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.219304361049723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.978185246582612</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.41689299878615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.761922831940431</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.2244048339173172</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC10fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$I$14:$I$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>14.070119209456456</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.448235768192433</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.181231787744885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.946625989261019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.720529065294167</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.616567473248011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.560202683949628</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.515604476107436</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.453364056775865</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.336139301290785</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.095020186823675</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.533727939027212</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.878757772181494</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.3412397741583799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$L$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC20fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$L$14:$L$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.651276899592036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.32591936036253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.174887714615567</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.030606512523184</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.868875635416604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.773954775560256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.707963337013783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.65259697660499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.592805101403084</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.509533719658675</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.367777022112602</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.068146279937437</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.73054179566167</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9367442821549403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$O$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC30fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$O$14:$O$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.661752674608037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.353751841677095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.214412746343285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.085128044822085</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.948318063358611</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.875904887578359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.831606888470063</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.797884176747626</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.760312443751097</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.700635400087616</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.585326090090515</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.31922199096425</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.006517216642484</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.299613848224887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$R$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC40fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$R$14:$R$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.704112851056955</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.396454479272043</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.259843363933317</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.135798657924287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.010251731572101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.949474177939177</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.916937509273122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.894983815007649</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.869092096711494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.820882910600099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.716600986130778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.460431331790987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.151437632178304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.438523136048317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$U$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC50fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$U$14:$U$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.624053515884519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.371313929135514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.257989878502613</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.154253690818782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.048426735079993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.997426724505619</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.971312912373676</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.955576936829443</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.938278089573135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.904323459173444</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.826050649375436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.625056630335575</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.377172654874936</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.981614391065904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="694149840"/>
-        <c:axId val="694151408"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="694149840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="694151408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="694151408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="13.5"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="694149840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>State</a:t>
             </a:r>
             <a:r>
@@ -5749,11 +5142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="694158464"/>
-        <c:axId val="694155720"/>
+        <c:axId val="475916664"/>
+        <c:axId val="475918232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="694158464"/>
+        <c:axId val="475916664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5875,13 +5268,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694155720"/>
+        <c:crossAx val="475918232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="694155720"/>
+        <c:axId val="475918232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -5996,7 +5389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694158464"/>
+        <c:crossAx val="475916664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6397,11 +5790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586482656"/>
-        <c:axId val="586480696"/>
+        <c:axId val="473026760"/>
+        <c:axId val="475916272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586482656"/>
+        <c:axId val="473026760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6460,12 +5853,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586480696"/>
+        <c:crossAx val="475916272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586480696"/>
+        <c:axId val="475916272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.8"/>
@@ -6524,7 +5917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586482656"/>
+        <c:crossAx val="473026760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -6540,6 +5933,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7818,11 +7212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586484224"/>
-        <c:axId val="586484616"/>
+        <c:axId val="475918624"/>
+        <c:axId val="475919016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586484224"/>
+        <c:axId val="475918624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7944,13 +7338,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586484616"/>
+        <c:crossAx val="475919016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586484616"/>
+        <c:axId val="475919016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -8065,7 +7459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586484224"/>
+        <c:crossAx val="475918624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9143,11 +8537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586483048"/>
-        <c:axId val="586485008"/>
+        <c:axId val="475915096"/>
+        <c:axId val="475915488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586483048"/>
+        <c:axId val="475915096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9268,13 +8662,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586485008"/>
+        <c:crossAx val="475915488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586485008"/>
+        <c:axId val="475915488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -9394,7 +8788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586483048"/>
+        <c:crossAx val="475915096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9498,448 +8892,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.677537182852145E-2"/>
-          <c:y val="2.6458264982502182E-2"/>
-          <c:w val="0.88073862642169731"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Model!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Model!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="586476776"/>
-        <c:axId val="586485400"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="586476776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="586485400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="586485400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4.5"/>
-          <c:min val="2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="586476776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -10289,11 +9241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586486184"/>
-        <c:axId val="586474816"/>
+        <c:axId val="475907648"/>
+        <c:axId val="475912352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586486184"/>
+        <c:axId val="475907648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10351,12 +9303,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586474816"/>
+        <c:crossAx val="475912352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586474816"/>
+        <c:axId val="475912352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.5"/>
@@ -10415,9 +9367,600 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586486184"/>
+        <c:crossAx val="475907648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>20 deg C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
+          <c:w val="0.75461703650680023"/>
+          <c:h val="0.67122210373054014"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC 20C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$14:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$K$14:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.845000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.831250000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.831250000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.831250000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC20fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$14:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$L$14:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.651276899592036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.32591936036253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.174887714615567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.030606512523184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.868875635416604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.773954775560256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.707963337013783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.65259697660499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.592805101403084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.509533719658675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.367777022112602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.068146279937437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.73054179566167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9367442821549403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475906864"/>
+        <c:axId val="475908040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475906864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475908040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475908040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475906864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10533,7 +10076,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>20 deg C</a:t>
+              <a:t>0 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -10592,11 +10135,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$K$13</c:f>
+              <c:f>Model!$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 20C</c:v>
+                  <c:v>VoC 0C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10678,51 +10221,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$K$14:$K$27</c:f>
+              <c:f>Model!$E$14:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.3</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.9</c:v>
+                  <c:v>12.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.85</c:v>
+                  <c:v>12.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.845000000000001</c:v>
+                  <c:v>12.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.831250000000001</c:v>
+                  <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.831250000000001</c:v>
+                  <c:v>12.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.831250000000001</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.79</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.65</c:v>
+                  <c:v>12.37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.41</c:v>
+                  <c:v>11.97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.15</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.59</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10734,11 +10277,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$L$13</c:f>
+              <c:f>Model!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC20fit</c:v>
+                  <c:v>VoC0fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10820,51 +10363,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$L$14:$L$27</c:f>
+              <c:f>Model!$F$14:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.651276899592036</c:v>
+                  <c:v>13.953284269215393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.32591936036253</c:v>
+                  <c:v>13.33140082795137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.174887714615567</c:v>
+                  <c:v>13.064396847503822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.030606512523184</c:v>
+                  <c:v>12.829791049019956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.868875635416604</c:v>
+                  <c:v>12.603694125053105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.773954775560256</c:v>
+                  <c:v>12.499732533006949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.707963337013783</c:v>
+                  <c:v>12.443367743708565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.65259697660499</c:v>
+                  <c:v>12.398769535866373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.592805101403084</c:v>
+                  <c:v>12.336529116534802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.509533719658675</c:v>
+                  <c:v>12.219304361049723</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.367777022112602</c:v>
+                  <c:v>11.978185246582612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.068146279937437</c:v>
+                  <c:v>11.41689299878615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.73054179566167</c:v>
+                  <c:v>10.761922831940431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9367442821549403</c:v>
+                  <c:v>7.2244048339173172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10879,11 +10422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586477168"/>
-        <c:axId val="586478736"/>
+        <c:axId val="475913528"/>
+        <c:axId val="475908432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586477168"/>
+        <c:axId val="475913528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10941,12 +10484,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586478736"/>
+        <c:crossAx val="475908432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586478736"/>
+        <c:axId val="475908432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -11005,7 +10548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586477168"/>
+        <c:crossAx val="475913528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -11124,7 +10667,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>0 deg C</a:t>
+              <a:t>10 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -11169,8 +10712,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
+          <c:x val="0.14346956630421198"/>
+          <c:y val="9.5828664691767332E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -11183,11 +10726,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$E$13</c:f>
+              <c:f>Model!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 0C</c:v>
+                  <c:v>VoC 10C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11269,51 +10812,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$E$14:$E$27</c:f>
+              <c:f>Model!$H$14:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>12.9</c:v>
+                  <c:v>13.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12.77</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12.74</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.64</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.6</c:v>
+                  <c:v>12.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>12.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.37</c:v>
+                  <c:v>12.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.97</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.4</c:v>
+                  <c:v>11.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11325,11 +10865,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$F$13</c:f>
+              <c:f>Model!$I$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC0fit</c:v>
+                  <c:v>VoC10fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11411,51 +10951,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$F$14:$F$27</c:f>
+              <c:f>Model!$I$14:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.953284269215393</c:v>
+                  <c:v>14.070119209456456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.33140082795137</c:v>
+                  <c:v>13.448235768192433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.064396847503822</c:v>
+                  <c:v>13.181231787744885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.829791049019956</c:v>
+                  <c:v>12.946625989261019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.603694125053105</c:v>
+                  <c:v>12.720529065294167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.499732533006949</c:v>
+                  <c:v>12.616567473248011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.443367743708565</c:v>
+                  <c:v>12.560202683949628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.398769535866373</c:v>
+                  <c:v>12.515604476107436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.336529116534802</c:v>
+                  <c:v>12.453364056775865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.219304361049723</c:v>
+                  <c:v>12.336139301290785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.978185246582612</c:v>
+                  <c:v>12.095020186823675</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.41689299878615</c:v>
+                  <c:v>11.533727939027212</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.761922831940431</c:v>
+                  <c:v>10.878757772181494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2244048339173172</c:v>
+                  <c:v>7.3412397741583799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11470,11 +11010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586486968"/>
-        <c:axId val="586475600"/>
+        <c:axId val="475903728"/>
+        <c:axId val="475904904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586486968"/>
+        <c:axId val="475903728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11532,12 +11072,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586475600"/>
+        <c:crossAx val="475904904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586475600"/>
+        <c:axId val="475904904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -11596,7 +11136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586486968"/>
+        <c:crossAx val="475903728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -11715,7 +11255,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>10 deg C</a:t>
+              <a:t>50 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -11723,7 +11263,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30196566338298619"/>
+          <c:y val="1.9493177387914229E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11760,8 +11307,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14346956630421198"/>
-          <c:y val="9.5828664691767332E-2"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -11774,11 +11321,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$H$13</c:f>
+              <c:f>Model!$T$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 10C</c:v>
+                  <c:v>VoC 50C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11860,48 +11407,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$H$14:$H$27</c:f>
+              <c:f>Model!$T$14:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.1</c:v>
+                  <c:v>13.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.85</c:v>
+                  <c:v>13.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.77</c:v>
+                  <c:v>13.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.75</c:v>
+                  <c:v>13.046666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.74</c:v>
+                  <c:v>13.043333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.71</c:v>
+                  <c:v>13.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.65</c:v>
+                  <c:v>13.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.49</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.25</c:v>
+                  <c:v>12.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.78</c:v>
+                  <c:v>12.66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.05</c:v>
+                  <c:v>12.43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.1</c:v>
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11913,11 +11463,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$I$13</c:f>
+              <c:f>Model!$U$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC10fit</c:v>
+                  <c:v>VoC50fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11999,51 +11549,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$I$14:$I$27</c:f>
+              <c:f>Model!$U$14:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>14.070119209456456</c:v>
+                  <c:v>13.624053515884519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.448235768192433</c:v>
+                  <c:v>13.371313929135514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.181231787744885</c:v>
+                  <c:v>13.257989878502613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.946625989261019</c:v>
+                  <c:v>13.154253690818782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.720529065294167</c:v>
+                  <c:v>13.048426735079993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.616567473248011</c:v>
+                  <c:v>12.997426724505619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.560202683949628</c:v>
+                  <c:v>12.971312912373676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.515604476107436</c:v>
+                  <c:v>12.955576936829443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.453364056775865</c:v>
+                  <c:v>12.938278089573135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.336139301290785</c:v>
+                  <c:v>12.904323459173444</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.095020186823675</c:v>
+                  <c:v>12.826050649375436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.533727939027212</c:v>
+                  <c:v>12.625056630335575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.878757772181494</c:v>
+                  <c:v>12.377172654874936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3412397741583799</c:v>
+                  <c:v>10.981614391065904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12058,11 +11608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586481872"/>
-        <c:axId val="694139648"/>
+        <c:axId val="475905296"/>
+        <c:axId val="475909216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586481872"/>
+        <c:axId val="475905296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12120,12 +11670,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694139648"/>
+        <c:crossAx val="475909216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="694139648"/>
+        <c:axId val="475909216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -12184,7 +11734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586481872"/>
+        <c:crossAx val="475905296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -12199,7 +11749,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4430014430014435E-2"/>
+          <c:y val="0.8903501097450538"/>
+          <c:w val="0.9"/>
+          <c:h val="0.1096498902549462"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12467,46 +12026,6 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15962,522 +15481,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -20783,16 +19786,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>137787</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>55736</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>198747</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20809,7 +19812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10271760" y="381000"/>
+          <a:off x="14599920" y="175260"/>
           <a:ext cx="4496427" cy="3515216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20897,36 +19900,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>430530</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -20949,7 +19922,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20979,7 +19952,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21011,7 +19984,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21043,7 +20016,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21075,7 +20048,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21107,7 +20080,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21139,7 +20112,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21169,7 +20142,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21199,7 +20172,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21231,7 +20204,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22264,8 +21237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22718,8 +21691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
